--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H2">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I2">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J2">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N2">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O2">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P2">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q2">
-        <v>456.1584871090478</v>
+        <v>390.0406133223138</v>
       </c>
       <c r="R2">
-        <v>4105.42638398143</v>
+        <v>3510.365519900824</v>
       </c>
       <c r="S2">
-        <v>0.2790440810118752</v>
+        <v>0.3385769393740886</v>
       </c>
       <c r="T2">
-        <v>0.2790440810118753</v>
+        <v>0.3385769393740886</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H3">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I3">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J3">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P3">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q3">
-        <v>190.0703857477973</v>
+        <v>175.7745536840533</v>
       </c>
       <c r="R3">
-        <v>1710.633471730176</v>
+        <v>1581.97098315648</v>
       </c>
       <c r="S3">
-        <v>0.1162710277620849</v>
+        <v>0.1525820860019361</v>
       </c>
       <c r="T3">
-        <v>0.1162710277620849</v>
+        <v>0.1525820860019361</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H4">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I4">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J4">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N4">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O4">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P4">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q4">
-        <v>15.82252175831089</v>
+        <v>36.27671873606167</v>
       </c>
       <c r="R4">
-        <v>142.402695824798</v>
+        <v>326.490468624555</v>
       </c>
       <c r="S4">
-        <v>0.009679050523251105</v>
+        <v>0.03149020891842533</v>
       </c>
       <c r="T4">
-        <v>0.009679050523251107</v>
+        <v>0.03149020891842533</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H5">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I5">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J5">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N5">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O5">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P5">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q5">
-        <v>18.33429311704555</v>
+        <v>23.54355359409278</v>
       </c>
       <c r="R5">
-        <v>165.00863805341</v>
+        <v>211.891982346835</v>
       </c>
       <c r="S5">
-        <v>0.01121556677871323</v>
+        <v>0.02043711358665768</v>
       </c>
       <c r="T5">
-        <v>0.01121556677871324</v>
+        <v>0.02043711358665768</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H6">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I6">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J6">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N6">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q6">
-        <v>14.827580217756</v>
+        <v>17.83508493831444</v>
       </c>
       <c r="R6">
-        <v>133.448221959804</v>
+        <v>160.51576444483</v>
       </c>
       <c r="S6">
-        <v>0.009070418752297542</v>
+        <v>0.01548184539157566</v>
       </c>
       <c r="T6">
-        <v>0.009070418752297544</v>
+        <v>0.01548184539157566</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>14.694925</v>
       </c>
       <c r="H7">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I7">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J7">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N7">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O7">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P7">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q7">
-        <v>97.13607484495836</v>
+        <v>89.81173236029166</v>
       </c>
       <c r="R7">
-        <v>874.2246736046252</v>
+        <v>808.3055912426248</v>
       </c>
       <c r="S7">
-        <v>0.05942067834798926</v>
+        <v>0.07796157739426032</v>
       </c>
       <c r="T7">
-        <v>0.05942067834798926</v>
+        <v>0.07796157739426032</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>14.694925</v>
       </c>
       <c r="H8">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I8">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J8">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P8">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q8">
-        <v>40.47429070720001</v>
+        <v>40.4742907072</v>
       </c>
       <c r="R8">
         <v>364.2686163648</v>
       </c>
       <c r="S8">
-        <v>0.02475918255204615</v>
+        <v>0.0351339347824703</v>
       </c>
       <c r="T8">
-        <v>0.02475918255204616</v>
+        <v>0.0351339347824703</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>14.694925</v>
       </c>
       <c r="H9">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I9">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J9">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N9">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O9">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P9">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q9">
-        <v>3.369306285391668</v>
+        <v>8.353168472075</v>
       </c>
       <c r="R9">
-        <v>30.32375656852501</v>
+        <v>75.178516248675</v>
       </c>
       <c r="S9">
-        <v>0.002061092805733318</v>
+        <v>0.007251014686037792</v>
       </c>
       <c r="T9">
-        <v>0.002061092805733318</v>
+        <v>0.007251014686037793</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>14.694925</v>
       </c>
       <c r="H10">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I10">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J10">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N10">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O10">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P10">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q10">
-        <v>3.904172165541667</v>
+        <v>5.421197849608333</v>
       </c>
       <c r="R10">
-        <v>35.13754948987501</v>
+        <v>48.790780646475</v>
       </c>
       <c r="S10">
-        <v>0.00238828425828517</v>
+        <v>0.004705901162515614</v>
       </c>
       <c r="T10">
-        <v>0.00238828425828517</v>
+        <v>0.004705901162515615</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,43 +1101,43 @@
         <v>14.694925</v>
       </c>
       <c r="H11">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I11">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J11">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N11">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q11">
-        <v>3.157439755050001</v>
+        <v>4.106751503283333</v>
       </c>
       <c r="R11">
-        <v>28.41695779545001</v>
+        <v>36.96076352955</v>
       </c>
       <c r="S11">
-        <v>0.001931488506071933</v>
+        <v>0.003564888648153661</v>
       </c>
       <c r="T11">
-        <v>0.001931488506071933</v>
+        <v>0.003564888648153661</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H12">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I12">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J12">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N12">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O12">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P12">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q12">
-        <v>285.6511756477767</v>
+        <v>104.0290805888439</v>
       </c>
       <c r="R12">
-        <v>2570.86058082999</v>
+        <v>936.2617252995949</v>
       </c>
       <c r="S12">
-        <v>0.1747402976184033</v>
+        <v>0.09030302616862426</v>
       </c>
       <c r="T12">
-        <v>0.1747402976184033</v>
+        <v>0.09030302616862426</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H13">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I13">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J13">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P13">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q13">
-        <v>119.024046858752</v>
+        <v>46.88143897352533</v>
       </c>
       <c r="R13">
-        <v>1071.216421728768</v>
+        <v>421.932950761728</v>
       </c>
       <c r="S13">
-        <v>0.07281012348253216</v>
+        <v>0.0406956957274409</v>
       </c>
       <c r="T13">
-        <v>0.07281012348253219</v>
+        <v>0.04069569572744091</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H14">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I14">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J14">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N14">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O14">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P14">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q14">
-        <v>9.908227227379333</v>
+        <v>9.675489084963667</v>
       </c>
       <c r="R14">
-        <v>89.17404504641399</v>
+        <v>87.07940176467301</v>
       </c>
       <c r="S14">
-        <v>0.006061121823345478</v>
+        <v>0.008398862501601415</v>
       </c>
       <c r="T14">
-        <v>0.006061121823345479</v>
+        <v>0.008398862501601415</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H15">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I15">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J15">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N15">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O15">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P15">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q15">
-        <v>11.48112450290333</v>
+        <v>6.279382583586778</v>
       </c>
       <c r="R15">
-        <v>103.33012052613</v>
+        <v>56.514443252281</v>
       </c>
       <c r="S15">
-        <v>0.007023304238401043</v>
+        <v>0.00545085322833518</v>
       </c>
       <c r="T15">
-        <v>0.007023304238401046</v>
+        <v>0.005450853228335181</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H16">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I16">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J16">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N16">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q16">
-        <v>9.285184515708</v>
+        <v>4.756857170726445</v>
       </c>
       <c r="R16">
-        <v>83.566660641372</v>
+        <v>42.81171453653801</v>
       </c>
       <c r="S16">
-        <v>0.005679990295986846</v>
+        <v>0.004129216514623163</v>
       </c>
       <c r="T16">
-        <v>0.005679990295986847</v>
+        <v>0.004129216514623164</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H17">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I17">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J17">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N17">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O17">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P17">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q17">
-        <v>7.576696575305556</v>
+        <v>4.454829305576111</v>
       </c>
       <c r="R17">
-        <v>68.19026917775</v>
+        <v>40.09346375018499</v>
       </c>
       <c r="S17">
-        <v>0.004634863523774664</v>
+        <v>0.003867039534340891</v>
       </c>
       <c r="T17">
-        <v>0.004634863523774665</v>
+        <v>0.00386703953434089</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H18">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I18">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J18">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.262912</v>
       </c>
       <c r="O18">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P18">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q18">
-        <v>3.157029149866667</v>
+        <v>2.007600250282667</v>
       </c>
       <c r="R18">
-        <v>28.4132623488</v>
+        <v>18.068402252544</v>
       </c>
       <c r="S18">
-        <v>0.001931237328138648</v>
+        <v>0.001742708643691062</v>
       </c>
       <c r="T18">
-        <v>0.001931237328138649</v>
+        <v>0.001742708643691062</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H19">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I19">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J19">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N19">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O19">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P19">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q19">
-        <v>0.2628087601277778</v>
+        <v>0.4143327238643334</v>
       </c>
       <c r="R19">
-        <v>2.36527884115</v>
+        <v>3.728994514779</v>
       </c>
       <c r="S19">
-        <v>0.0001607669944200661</v>
+        <v>0.0003596638420127566</v>
       </c>
       <c r="T19">
-        <v>0.0001607669944200662</v>
+        <v>0.0003596638420127566</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H20">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I20">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J20">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N20">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O20">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P20">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q20">
-        <v>0.3045287543611111</v>
+        <v>0.2689015167292222</v>
       </c>
       <c r="R20">
-        <v>2.74075878925</v>
+        <v>2.420113650563</v>
       </c>
       <c r="S20">
-        <v>0.000186288206410315</v>
+        <v>0.0002334214679638896</v>
       </c>
       <c r="T20">
-        <v>0.0001862882064103151</v>
+        <v>0.0002334214679638896</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H21">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I21">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J21">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N21">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q21">
-        <v>0.2462829903</v>
+        <v>0.2037025282415556</v>
       </c>
       <c r="R21">
-        <v>2.2165469127</v>
+        <v>1.833322754174</v>
       </c>
       <c r="S21">
-        <v>0.0001506577486536849</v>
+        <v>0.0001768251207670944</v>
       </c>
       <c r="T21">
-        <v>0.0001506577486536849</v>
+        <v>0.0001768251207670944</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H22">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I22">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J22">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N22">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O22">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P22">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q22">
-        <v>226.0846288526189</v>
+        <v>109.95021690728</v>
       </c>
       <c r="R22">
-        <v>2034.76165967357</v>
+        <v>989.5519521655198</v>
       </c>
       <c r="S22">
-        <v>0.1383018825077969</v>
+        <v>0.09544290171962544</v>
       </c>
       <c r="T22">
-        <v>0.1383018825077969</v>
+        <v>0.09544290171962541</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H23">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I23">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J23">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>8.262912</v>
       </c>
       <c r="O23">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P23">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q23">
-        <v>94.20408439620266</v>
+        <v>49.549840822272</v>
       </c>
       <c r="R23">
-        <v>847.836759565824</v>
+        <v>445.948567400448</v>
       </c>
       <c r="S23">
-        <v>0.05762710308099429</v>
+        <v>0.043012016900442</v>
       </c>
       <c r="T23">
-        <v>0.05762710308099431</v>
+        <v>0.043012016900442</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H24">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I24">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J24">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N24">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O24">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P24">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q24">
-        <v>7.842074762022444</v>
+        <v>10.226199419952</v>
       </c>
       <c r="R24">
-        <v>70.578672858202</v>
+        <v>92.03579477956799</v>
       </c>
       <c r="S24">
-        <v>0.004797202303663043</v>
+        <v>0.008876909692927997</v>
       </c>
       <c r="T24">
-        <v>0.004797202303663044</v>
+        <v>0.008876909692927995</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H25">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I25">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J25">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N25">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O25">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P25">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q25">
-        <v>9.086977381287777</v>
+        <v>6.636793031344</v>
       </c>
       <c r="R25">
-        <v>81.78279643159</v>
+        <v>59.731137282096</v>
       </c>
       <c r="S25">
-        <v>0.005558741806180568</v>
+        <v>0.005761105369698634</v>
       </c>
       <c r="T25">
-        <v>0.00555874180618057</v>
+        <v>0.005761105369698634</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H26">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I26">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J26">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N26">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q26">
-        <v>7.348954508244</v>
+        <v>5.027608383712001</v>
       </c>
       <c r="R26">
-        <v>66.140590574196</v>
+        <v>45.248475453408</v>
       </c>
       <c r="S26">
-        <v>0.004495547742951003</v>
+        <v>0.00436424362178423</v>
       </c>
       <c r="T26">
-        <v>0.004495547742951004</v>
+        <v>0.004364243621784229</v>
       </c>
     </row>
   </sheetData>
